--- a/IPA Milestone 2.xlsx
+++ b/IPA Milestone 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mufaddal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D661CC7-E1BD-40B4-98BE-66CDE697B213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E25A4D-E06D-4459-9ED7-EC34B351ED51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{28FD0EBD-33E0-441D-91D0-CD6FD2B770CD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="109">
   <si>
     <t>CustomerID</t>
   </si>
@@ -350,13 +350,16 @@
   </si>
   <si>
     <t>ALSO NOW WE ADD ORDERID COLUMN IN FEEDBACK TABLE</t>
+  </si>
+  <si>
+    <t>FINAL ENTITIES AND ATRRIBUTES ARE LISTED BELOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,10 +383,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -418,13 +438,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -445,6 +464,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,16 +781,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632E7057-937E-46EE-80CD-BA5AC7596238}">
-  <dimension ref="A1:AN171"/>
+  <dimension ref="A1:AN223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -786,13 +809,14 @@
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="C1" s="11"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -899,16 +923,16 @@
       <c r="P4">
         <v>14693382093</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -971,115 +995,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>765</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>14694886593</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>14694886593</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>7</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>7</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>14696486593</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>2</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>2</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>765</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>7</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>6</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>14693382093</v>
       </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1152,7 +1176,7 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E9">
@@ -1499,16 +1523,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1520,7 +1544,7 @@
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1535,10 +1559,10 @@
       <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -1559,7 +1583,7 @@
       <c r="Q23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="S23" s="2" t="s">
@@ -1570,60 +1594,60 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>123</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>6</v>
       </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>6</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>14693382093</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1686,119 +1710,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>765</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
         <v>14694886593</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>3</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>14694886593</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7">
         <v>7</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>3</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>7</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>14696486593</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <v>2</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <v>2</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>765</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
         <v>3</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>7</v>
       </c>
-      <c r="K27" s="8">
-        <v>1</v>
-      </c>
-      <c r="L27" s="8" t="s">
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>6</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <v>14693382093</v>
       </c>
-      <c r="Q27" s="8">
-        <v>1</v>
-      </c>
-      <c r="R27" s="8">
-        <v>1</v>
-      </c>
-      <c r="S27" s="8" t="s">
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
+      <c r="R27" s="7">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1871,7 +1895,7 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E29">
@@ -2218,16 +2242,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2239,17 +2264,17 @@
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="8"/>
       <c r="H38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -2267,7 +2292,7 @@
       <c r="P38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -2277,159 +2302,159 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>123</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>6</v>
       </c>
-      <c r="K39" s="8">
-        <v>1</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <v>6</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="O39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="7">
         <v>14693382093</v>
       </c>
-      <c r="Q39" s="8">
-        <v>1</v>
-      </c>
-      <c r="R39" s="8" t="s">
+      <c r="Q39" s="7">
+        <v>1</v>
+      </c>
+      <c r="R39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39" s="7">
         <v>5</v>
       </c>
-      <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>123</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <v>6</v>
       </c>
-      <c r="K40" s="8">
-        <v>1</v>
-      </c>
-      <c r="L40" s="8" t="s">
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <v>6</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="7">
         <v>14693382093</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="7">
         <v>2</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="7">
         <v>15</v>
       </c>
-      <c r="T40" s="8"/>
+      <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>123</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <v>6</v>
       </c>
-      <c r="K41" s="8">
-        <v>1</v>
-      </c>
-      <c r="L41" s="8" t="s">
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <v>6</v>
       </c>
-      <c r="N41" s="8" t="s">
+      <c r="N41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="O41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="7">
         <v>14693382093</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="7">
         <v>5</v>
       </c>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="7">
         <v>52</v>
       </c>
-      <c r="T41" s="8"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="4"/>
+      <c r="T41" s="7"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="3"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -2478,97 +2503,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>765</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>14694886593</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <v>14694886593</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="7">
         <v>7</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7">
         <v>3</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="7">
         <v>7</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="8" t="s">
+      <c r="O43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="7">
         <v>14696486593</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="7">
         <v>2</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="R43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+    <row r="44" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>765</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>14694886593</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <v>7</v>
       </c>
-      <c r="K44" s="8">
-        <v>1</v>
-      </c>
-      <c r="L44" s="8" t="s">
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <v>6</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="O44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <v>14693382093</v>
       </c>
-      <c r="Q44" s="8">
-        <v>1</v>
-      </c>
-      <c r="R44" s="8" t="s">
+      <c r="Q44" s="7">
+        <v>1</v>
+      </c>
+      <c r="R44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="7">
         <v>5</v>
       </c>
     </row>
@@ -2629,7 +2654,7 @@
       <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>14694791093</v>
       </c>
     </row>
@@ -2643,7 +2668,7 @@
       <c r="C47" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>14694791193</v>
       </c>
       <c r="H47">
@@ -3097,18 +3122,18 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -3282,8 +3307,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A139" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3435,6 +3460,252 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>103</v>
+      </c>
+      <c r="C183" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>103</v>
+      </c>
+      <c r="C188" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3450,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA969A59-9522-4337-B105-2BD252F5F1CF}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,5 +3973,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>